--- a/data/economy/Foreign direct investment in the South West by project type and investor characteristics/FDI projects by investor type, UK regions, 202425.xlsx
+++ b/data/economy/Foreign direct investment in the South West by project type and investor characteristics/FDI projects by investor type, UK regions, 202425.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Economy - Internationalisation\Foreign Direct Investment\South West foreign direct investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Economy - Internationalisation\Foreign Direct Investment\Foreign direct investment in the South West by project type and investor characteristics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D6576-C747-4FBA-B1D7-48086CE90F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E9343-1EEA-42FA-AB5A-5EDE95380816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4B7A0227-4892-43CA-83B8-EE042050E0E6}"/>
+    <workbookView xWindow="-12720" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{4B7A0227-4892-43CA-83B8-EE042050E0E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Data information:</t>
   </si>
   <si>
-    <t>Official annual DBT estimates of inward foreign direct investment (FDI) activity, reporting the percentage of FDI projects from new investments, and excisiting investment. Percentages are calculated from published project counts only and exclude suppressed categories. Sub-national figures exclude multi-site FDI projects. Some regional values are suppressed to protect confidentiality.</t>
-  </si>
-  <si>
     <t>Table 4.5 Regional breakdown for all FDI projects by investor type 2023-24 to 2024-25</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>ITL1 regions of England and devolved nations of the UK, England and England excluding London.</t>
+  </si>
+  <si>
+    <t>Official annual DBT estimates of inward foreign direct investment (FDI) activity, reporting the percentage of FDI projects from new investments, and excisiting investment. Percentages are calculated from published project counts only and exclude suppressed categories and regions. Sub-national figures exclude multi-site FDI projects. Some regional values are suppressed to protect confidentiality.</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -633,7 +633,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -665,7 +665,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +844,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
